--- a/anison.xlsx
+++ b/anison.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KaraokeSelector\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="24240" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>曲名</t>
     <rPh sb="0" eb="2">
@@ -70,6 +65,37 @@
   </si>
   <si>
     <t>ガンダムGのレコンギスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>THE IDOLM@STER シンデレラガールズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Star!!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CINDERELLA PROJECT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -122,7 +148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,22 +426,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +450,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -437,13 +467,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -451,15 +484,35 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/anison.xlsx
+++ b/anison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>曲名</t>
     <rPh sb="0" eb="2">
@@ -96,6 +96,230 @@
   </si>
   <si>
     <t>OP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Absolute Soul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブソリュート・デュオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木このみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never say Never</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISUCA-イスカ-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフィリア・サーガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SURPRISE-DRIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮面ライダードライブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mitsuru Matsuoka EARNEST DRIVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎ノ刻印-DIVINE FLAME-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牙狼〈GARO〉-炎の刻印-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JAM Project</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹雪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艦隊これくしょん -艦これ-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ED1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西沢幸奏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガンダムビルドファイターズトライ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルリアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BACK-ON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笑顔になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸腹グラフィティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤利奈,大亀あすか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLYING FAFNIR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃皇無尽のファフニール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUSTRICK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STAND PROUD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョジョの奇妙な冒険 スターダストクルセイダース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋本仁</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さぁ行け!ニンニンジャー!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手裏剣戦隊ニンニンジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大西洋平</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Philosophy of Dear World</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純潔のマリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZAQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝箱-TREASURE BOX-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHIROBAKO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OP2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奥井雅美</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緋ノ糸輪廻ノGEMINI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖剣使いの禁呪詠唱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>petit milady</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルキィ A GO GO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探偵歌劇 ミルキィホームズ TD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルキィホームズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムーミンのテーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムーミン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田淑子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出撃!ゴーグルロボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大戦隊ゴーグルV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoJo,こおろぎ'73</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -418,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,6 +734,278 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>1982</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
